--- a/exceltpp/import_hitungtpp.xlsx
+++ b/exceltpp/import_hitungtpp.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Penerima TPP.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -61,16 +66,16 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>198210312006041004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JUMBERI S.Sos</t>
-  </si>
-  <si>
-    <t>KELURAHAN BATU PIRING</t>
-  </si>
-  <si>
-    <t>LURAH BATU PIRING</t>
+    <t>197312241994031007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAMRIN S.Ag, SE, M.AP</t>
+  </si>
+  <si>
+    <t>DINAS PERPUSTAKAAN DAN KEARSIPAN</t>
+  </si>
+  <si>
+    <t>KEPALA DINAS PERPUSTAKAAN DAN KEARSIPAN</t>
   </si>
   <si>
     <t>AK</t>
@@ -79,59 +84,248 @@
     <t>TIDAK</t>
   </si>
   <si>
-    <t>198103192010011013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AHMADI S.Sos</t>
-  </si>
-  <si>
-    <t>KEPALA SEKSI PEMBERDAYAAN MASYARAKAT</t>
-  </si>
-  <si>
-    <t>198208112010011019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WANDI SAPUTRA Amd</t>
-  </si>
-  <si>
     <t>SEKRETARIS</t>
   </si>
   <si>
-    <t>198803212010011002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BUGI RUSDIANA Amd</t>
-  </si>
-  <si>
-    <t>KEPALA SEKSI PEMERINTAHAN UMUM DAN KOORDINASI KETENTRAMAN KETERTIBAN UMUM</t>
-  </si>
-  <si>
-    <t>196904132007011037</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYAHBANA </t>
-  </si>
-  <si>
-    <t>PRAMU KEBERSIHAN</t>
-  </si>
-  <si>
-    <t>197108142006042003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NORAIDA </t>
+    <t>196408281987101001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H. PAHRUDIN S.Pt, MAP</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG PENGELOLAAN DAN PERIZINAN PENGGUNAAN ARSIP</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG PEMBINAAN PERPUSTAKAAN, PELESTARIAN KOLEKSI NASIONAL DAN NASKAH KUNO</t>
+  </si>
+  <si>
+    <t>197110172001121001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SYAIFULLAH SP</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG PERLINDUNGAN DAN PENYELAMATAN ARSIP</t>
+  </si>
+  <si>
+    <t>198211012010012029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DUMARIA TUMIAR NN SIMANGUNSONG SE</t>
+  </si>
+  <si>
+    <t>KEPALA SUB BAGIAN UMUM DAN KEPEGAWAIAN</t>
+  </si>
+  <si>
+    <t>198412212010012025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENDANG MULIAWATI SAP</t>
+  </si>
+  <si>
+    <t>197512122010012009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUTIA RAHULIZA SE</t>
+  </si>
+  <si>
+    <t>198303282010012023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARIANI SE</t>
+  </si>
+  <si>
+    <t>197306192005012006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIAN YUNIARTI S.Sos</t>
+  </si>
+  <si>
+    <t>196411051986021005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DARNO S.AP, MM</t>
+  </si>
+  <si>
+    <t>KEPALA SUB BAGIAN PERENCANAAN DAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>196908051989031007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AHMAD GAZALI RAKHMAN S.Pt, MP</t>
+  </si>
+  <si>
+    <t>198409122008012010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOR HENNY WINANDARI </t>
+  </si>
+  <si>
+    <t>198506032010012021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SITI MUARIFAH A.Md</t>
+  </si>
+  <si>
+    <t>198506212009031007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FIRMANSYAH </t>
+  </si>
+  <si>
+    <t>198510142015032002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NINA ERLIYANA A.Ma.Pust</t>
+  </si>
+  <si>
+    <t>198512162010011009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NURDIAN WAHYUDI S.S, M.Pd</t>
+  </si>
+  <si>
+    <t>PENYULUH KEARSIPAN</t>
+  </si>
+  <si>
+    <t>198209252008012019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NORLATIFAH S.Sos</t>
+  </si>
+  <si>
+    <t>198104302007011005</t>
+  </si>
+  <si>
+    <t>197905132006041022</t>
+  </si>
+  <si>
+    <t>197808192005011008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAHRURAJI S.Sos</t>
+  </si>
+  <si>
+    <t>PENYULUH PERPUSTAKAAN</t>
+  </si>
+  <si>
+    <t>198705082010011009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HASBIE ASSIDQI S.Kom</t>
   </si>
   <si>
     <t>PENGADMINISTRASI UMUM</t>
   </si>
   <si>
-    <t>-</t>
+    <t>PUSTAKAWAN PELAKSANA LANJUTAN</t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI KEUANGAN</t>
+  </si>
+  <si>
+    <t>PUSTAKAWAN PELAKSANA</t>
+  </si>
+  <si>
+    <t>PENATA LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>ANALIS PENGAWASAN</t>
+  </si>
+  <si>
+    <t>PRANATA KOMPUTER PERTAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENYUSUN KEBUTUHAN BARANG INVENTARIS </t>
+  </si>
+  <si>
+    <t>BENDAHARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOKMANOL HAKIM S.Sos, MM</t>
+  </si>
+  <si>
+    <t>197302281995031001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUDIE NOOR SALAM, MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BASRANNOOR, MM</t>
+  </si>
+  <si>
+    <t>PUSTAKAWAN AHLI MUDA (SUB KOORDINATOR PELESTARIAN KOLEKSI NASIONAL DAN NASKAH KUNO)</t>
+  </si>
+  <si>
+    <t>ARSIPARIS AHLI MUDA (SUB KOORDINATOR PERLINDUNGAN, PENYELAMATAN DAN PEMUSNAHAN ARSIP)</t>
+  </si>
+  <si>
+    <t>PUSTAKAWAN AHLI MUDA ( SUB KOORDINATOR PENGELOLAAN PERPUSTAKAAN)</t>
+  </si>
+  <si>
+    <t>ARSIPARIS AHLI MUDA (SUB KOORDINATOR PENYELAMATAN ARSIP PERANGKAT DAERAH)</t>
+  </si>
+  <si>
+    <t>ARSIPARIS AHLI MUDA (SUB KOORDINATOR PENGELOLAAN ARSIP DINAMIS)</t>
+  </si>
+  <si>
+    <t>ARSIPARIS AHLI MUDA (SUB KOORDINATOR PELAYANAN IZIN PENGGUNAAN ARSIP DAN PENGELOLAAN SIMPUL JARINGAN INFORMASI KEARSIPAN NASIONAL)</t>
+  </si>
+  <si>
+    <t>PUSTAKAWAN AHLI MUDA (SUB KOORDINATOR PEMBUDAYAAN GEMAR MEMBACA)</t>
+  </si>
+  <si>
+    <t>RENNY YULIANTHIE, SE</t>
+  </si>
+  <si>
+    <t>197807312010012013</t>
+  </si>
+  <si>
+    <t>SURYA DHARMA, S.Sos</t>
+  </si>
+  <si>
+    <t>197904102005011016</t>
+  </si>
+  <si>
+    <t>199505142022022001</t>
+  </si>
+  <si>
+    <t>ERMA INDRIATI, A.Md</t>
+  </si>
+  <si>
+    <t>199607262022022001</t>
+  </si>
+  <si>
+    <t>RAHMIATUL FIKRI, A.Md</t>
+  </si>
+  <si>
+    <t>197012051996032003</t>
+  </si>
+  <si>
+    <t>HERLINA, S. Sos, MM</t>
+  </si>
+  <si>
+    <t>197807062005012013</t>
+  </si>
+  <si>
+    <t>SUGIATUN MUKMINATI, S. Sos, M. Si</t>
+  </si>
+  <si>
+    <t>PENGAWAS PERPUSTAKAAN</t>
+  </si>
+  <si>
+    <t>YUSIFA ZULAIHA, SE</t>
+  </si>
+  <si>
+    <t>198608292006042005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,11 +336,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -202,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,17 +424,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -280,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,14 +730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -544,7 +751,7 @@
     <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,9 +798,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
@@ -614,268 +821,1246 @@
         <v>7</v>
       </c>
       <c r="H2" s="7">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7">
+        <v>10592500</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7">
+        <v>8360000</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5880500</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5880500</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5880500</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7">
         <v>9</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I7" s="7">
+        <v>4446000</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4446000</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G9" s="5">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4446000</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4446000</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4446000</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4446000</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4446000</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G14" s="5">
+        <v>7</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
         <v>4892500</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5">
-        <v>1136</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G3" s="5">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="5">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7">
+        <v>9</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4446000</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2280000</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="5">
+        <v>7</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3144500</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2280000</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2736000</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G20" s="5">
+        <v>7</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3144500</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3724500</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G22" s="5">
+        <v>7</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3144500</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G23" s="5">
+        <v>7</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3144500</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G24" s="5">
+        <v>7</v>
+      </c>
+      <c r="H24" s="7">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3757500</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G25" s="5">
+        <v>7</v>
+      </c>
+      <c r="H25" s="7">
         <v>8</v>
       </c>
-      <c r="I3" s="7">
-        <v>3933000</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="5">
-        <v>1136</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G4" s="5">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3933000</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="5">
-        <v>1136</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G5" s="5">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3933000</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="5">
-        <v>1136</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G6" s="5">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1890000</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="5">
-        <v>1136</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G7" s="5">
-        <v>7</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2280000</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="I25" s="7">
+        <v>3572000</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G26" s="5">
+        <v>7</v>
+      </c>
+      <c r="H26" s="7">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3144500</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G27" s="5">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7">
+        <v>7</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3144500</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G28" s="5">
+        <v>7</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2736000</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G29" s="5">
+        <v>7</v>
+      </c>
+      <c r="H29" s="7">
+        <v>6</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2736000</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/exceltpp/import_hitungtpp.xlsx
+++ b/exceltpp/import_hitungtpp.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="22695" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Penerima TPP.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -66,16 +61,16 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>197312241994031007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TAMRIN S.Ag, SE, M.AP</t>
-  </si>
-  <si>
-    <t>DINAS PERPUSTAKAAN DAN KEARSIPAN</t>
-  </si>
-  <si>
-    <t>KEPALA DINAS PERPUSTAKAAN DAN KEARSIPAN</t>
+    <t>197806012005011016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAKHRIYANTO S.Pt, MP</t>
+  </si>
+  <si>
+    <t>BADAN PENGELOLAAN KEUANGAN, PENDAPATAN DAN ASET DAERAH</t>
+  </si>
+  <si>
+    <t>KEPALA BADAN PENGELOLAAN KEUANGAN, PENDAPATAN DAN ASET DAERAH</t>
   </si>
   <si>
     <t>AK</t>
@@ -84,247 +79,472 @@
     <t>TIDAK</t>
   </si>
   <si>
+    <t>196703151993021002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs AKHMAD SYAIFULLAH ABDI </t>
+  </si>
+  <si>
     <t>SEKRETARIS</t>
   </si>
   <si>
-    <t>196408281987101001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> H. PAHRUDIN S.Pt, MAP</t>
-  </si>
-  <si>
-    <t>KEPALA BIDANG PENGELOLAAN DAN PERIZINAN PENGGUNAAN ARSIP</t>
-  </si>
-  <si>
-    <t>KEPALA BIDANG PEMBINAAN PERPUSTAKAAN, PELESTARIAN KOLEKSI NASIONAL DAN NASKAH KUNO</t>
-  </si>
-  <si>
-    <t>197110172001121001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYAIFULLAH SP</t>
-  </si>
-  <si>
-    <t>KEPALA BIDANG PERLINDUNGAN DAN PENYELAMATAN ARSIP</t>
-  </si>
-  <si>
-    <t>198211012010012029</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DUMARIA TUMIAR NN SIMANGUNSONG SE</t>
+    <t>198210202009041002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NORWANTO SE</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG AKUNTANSI DAN PERTANGGUNGJAWABAN</t>
+  </si>
+  <si>
+    <t>198010022005011011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KAMRANI SE, MM</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG PENGELOLAAN BARANG MILIK DAERAH</t>
+  </si>
+  <si>
+    <t>197804172005011012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABDUL HALIM SE, MM</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG LAYANAN, PENDATAAN DAN PENETAPAN</t>
+  </si>
+  <si>
+    <t>198303202009041002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RIZANI RAHMAN ST</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG ANGGARAN</t>
+  </si>
+  <si>
+    <t>198207062010011025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HALIM MURASYID ST, MA</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG PENAGIHAN DAN PELAPORAN</t>
+  </si>
+  <si>
+    <t>198208202010011027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUSTAKIM SE</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG PERBENDAHARAAN</t>
+  </si>
+  <si>
+    <t>197911152010011015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMMAD NOROL GIANTO SH</t>
+  </si>
+  <si>
+    <t>KEPALA SUB BAGIAN PERENCANAAN DAN PELAPORAN</t>
+  </si>
+  <si>
+    <t>198404162010012031</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISMAH WARDANI SE</t>
   </si>
   <si>
     <t>KEPALA SUB BAGIAN UMUM DAN KEPEGAWAIAN</t>
   </si>
   <si>
-    <t>198412212010012025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ENDANG MULIAWATI SAP</t>
-  </si>
-  <si>
-    <t>197512122010012009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MUTIA RAHULIZA SE</t>
-  </si>
-  <si>
-    <t>198303282010012023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARIANI SE</t>
-  </si>
-  <si>
-    <t>197306192005012006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIAN YUNIARTI S.Sos</t>
-  </si>
-  <si>
-    <t>196411051986021005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DARNO S.AP, MM</t>
-  </si>
-  <si>
-    <t>KEPALA SUB BAGIAN PERENCANAAN DAN KEUANGAN</t>
-  </si>
-  <si>
-    <t>196908051989031007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AHMAD GAZALI RAKHMAN S.Pt, MP</t>
-  </si>
-  <si>
-    <t>198409122008012010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOR HENNY WINANDARI </t>
-  </si>
-  <si>
-    <t>198506032010012021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SITI MUARIFAH A.Md</t>
-  </si>
-  <si>
-    <t>198506212009031007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FIRMANSYAH </t>
-  </si>
-  <si>
-    <t>198510142015032002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NINA ERLIYANA A.Ma.Pust</t>
-  </si>
-  <si>
-    <t>198512162010011009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NURDIAN WAHYUDI S.S, M.Pd</t>
-  </si>
-  <si>
-    <t>PENYULUH KEARSIPAN</t>
-  </si>
-  <si>
-    <t>198209252008012019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NORLATIFAH S.Sos</t>
-  </si>
-  <si>
-    <t>198104302007011005</t>
-  </si>
-  <si>
-    <t>197905132006041022</t>
-  </si>
-  <si>
-    <t>197808192005011008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FAHRURAJI S.Sos</t>
-  </si>
-  <si>
-    <t>PENYULUH PERPUSTAKAAN</t>
-  </si>
-  <si>
-    <t>198705082010011009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HASBIE ASSIDQI S.Kom</t>
+    <t>198811132010012006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRIANA S.Kom</t>
+  </si>
+  <si>
+    <t>KEPALA SUB BAGIAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>198802292010012011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FARIDA AULIA SARI SE</t>
+  </si>
+  <si>
+    <t>PENYUSUN LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>198210312006041004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUMBERI S.Sos</t>
+  </si>
+  <si>
+    <t>PENYUSUN KEBUTUHAN BARANG INVENTARIS</t>
+  </si>
+  <si>
+    <t>199809192020081003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BIMA SYAILENDRA S.STP</t>
+  </si>
+  <si>
+    <t>ANALIS LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>198301162010012019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRI TUNJUNG SARI Amd</t>
+  </si>
+  <si>
+    <t>VERIFIKATOR KEUANGAN</t>
+  </si>
+  <si>
+    <t>199709022022022003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIARA NOOR HALIZA S. Ak</t>
+  </si>
+  <si>
+    <t>ANALIS PAJAK RETRIBUSI DAERAH</t>
+  </si>
+  <si>
+    <t>199510102020122014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RISA SRI HARTATI S.E</t>
+  </si>
+  <si>
+    <t>ANALIS LAPORAN PERTANGGUNGJAWABAN BENDAHARA</t>
+  </si>
+  <si>
+    <t>198305112005012006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NUR HIKMAH S.AP</t>
+  </si>
+  <si>
+    <t>ANALIS TRANSAKSI KEUANGAN</t>
+  </si>
+  <si>
+    <t>198402062010012022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETNA WIDIYANTIE A.Md</t>
+  </si>
+  <si>
+    <t>VERIFIKATOR DATA LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>199406202016092003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LYA YUNIARTI S.STP</t>
+  </si>
+  <si>
+    <t>198408072010011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGUS S.AP</t>
+  </si>
+  <si>
+    <t>PENYUSUN RENCANA PENGENDALIAN PELAKSANAAN ANGGARAN</t>
+  </si>
+  <si>
+    <t>199305162022022002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SITI AISYAH S.E.</t>
+  </si>
+  <si>
+    <t>ANALIS PENDAPATAN DAERAH</t>
+  </si>
+  <si>
+    <t>198504182010011001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMMAD NASIR S.AP</t>
+  </si>
+  <si>
+    <t>BENDAHARA</t>
+  </si>
+  <si>
+    <t>198605122010011017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUDIANSYAH S.Kom.,MM</t>
+  </si>
+  <si>
+    <t>198811072010011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I WAYAN SANDY SUTRISNA A.Md</t>
+  </si>
+  <si>
+    <t>PENGELOLA PEMANFAATAN BARANG MILIK DAERAH</t>
+  </si>
+  <si>
+    <t>198602092010011015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AKHMAD RIZANI S.Ak</t>
+  </si>
+  <si>
+    <t>PENGELOLA AKUNTANSI</t>
+  </si>
+  <si>
+    <t>198210122005011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMMAD NORLAMSYAH A.Ma</t>
+  </si>
+  <si>
+    <t>PENGELOLA DATA PENGKAJIAN DAN PERAWATAN</t>
+  </si>
+  <si>
+    <t>196810212007011017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AKHMAD HERIADI </t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI PAJAK</t>
+  </si>
+  <si>
+    <t>197004162006042008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NURUL LATIPAH </t>
+  </si>
+  <si>
+    <t>197505172006041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NANANG HERMANSYAH </t>
   </si>
   <si>
     <t>PENGADMINISTRASI UMUM</t>
   </si>
   <si>
-    <t>PUSTAKAWAN PELAKSANA LANJUTAN</t>
+    <t>197706132007012017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISNANIAH S.A.P</t>
+  </si>
+  <si>
+    <t>197803282006042020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PATMAWATI S.Sos</t>
+  </si>
+  <si>
+    <t>ANALIS PENAGIHAN DAN PENGEMBALIAN</t>
+  </si>
+  <si>
+    <t>197904292006041009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PADELI APRIANOOR SE</t>
+  </si>
+  <si>
+    <t>ANALIS PERENCANAAN, EVALUASI, DAN PELAPORAN</t>
+  </si>
+  <si>
+    <t>198011202005012017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NURUL ADAWIYAH S.E.</t>
+  </si>
+  <si>
+    <t>ANALIS LAPORAN KEUANGAN TRANSFER DAERAH</t>
+  </si>
+  <si>
+    <t>196508132009031001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANSYAH </t>
+  </si>
+  <si>
+    <t>PRAMU BAKTI</t>
+  </si>
+  <si>
+    <t>198201132010012017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHEILA CAHYANI S.Ak</t>
+  </si>
+  <si>
+    <t>ANALIS ASET DAERAH</t>
+  </si>
+  <si>
+    <t>198210112010011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAUZI RAHMAN S.AP</t>
+  </si>
+  <si>
+    <t>ANALIS PEMERIKSAAN PAJAK</t>
+  </si>
+  <si>
+    <t>198203212005011007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROSSY NOORIANSYAH </t>
+  </si>
+  <si>
+    <t>198207222010012021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FITRIAH SE</t>
+  </si>
+  <si>
+    <t>ANALIS PELAPORAN DAN TRANSAKSI KEUANGAN</t>
+  </si>
+  <si>
+    <t>198206012007011005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIDAYATULLAH </t>
   </si>
   <si>
     <t>PENGADMINISTRASI KEUANGAN</t>
   </si>
   <si>
-    <t>PUSTAKAWAN PELAKSANA</t>
-  </si>
-  <si>
-    <t>PENATA LAPORAN KEUANGAN</t>
-  </si>
-  <si>
-    <t>ANALIS PENGAWASAN</t>
-  </si>
-  <si>
-    <t>PRANATA KOMPUTER PERTAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENYUSUN KEBUTUHAN BARANG INVENTARIS </t>
-  </si>
-  <si>
-    <t>BENDAHARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOKMANOL HAKIM S.Sos, MM</t>
-  </si>
-  <si>
-    <t>197302281995031001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUDIE NOOR SALAM, MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BASRANNOOR, MM</t>
-  </si>
-  <si>
-    <t>PUSTAKAWAN AHLI MUDA (SUB KOORDINATOR PELESTARIAN KOLEKSI NASIONAL DAN NASKAH KUNO)</t>
-  </si>
-  <si>
-    <t>ARSIPARIS AHLI MUDA (SUB KOORDINATOR PERLINDUNGAN, PENYELAMATAN DAN PEMUSNAHAN ARSIP)</t>
-  </si>
-  <si>
-    <t>PUSTAKAWAN AHLI MUDA ( SUB KOORDINATOR PENGELOLAAN PERPUSTAKAAN)</t>
-  </si>
-  <si>
-    <t>ARSIPARIS AHLI MUDA (SUB KOORDINATOR PENYELAMATAN ARSIP PERANGKAT DAERAH)</t>
-  </si>
-  <si>
-    <t>ARSIPARIS AHLI MUDA (SUB KOORDINATOR PENGELOLAAN ARSIP DINAMIS)</t>
-  </si>
-  <si>
-    <t>ARSIPARIS AHLI MUDA (SUB KOORDINATOR PELAYANAN IZIN PENGGUNAAN ARSIP DAN PENGELOLAAN SIMPUL JARINGAN INFORMASI KEARSIPAN NASIONAL)</t>
-  </si>
-  <si>
-    <t>PUSTAKAWAN AHLI MUDA (SUB KOORDINATOR PEMBUDAYAAN GEMAR MEMBACA)</t>
-  </si>
-  <si>
-    <t>RENNY YULIANTHIE, SE</t>
-  </si>
-  <si>
-    <t>197807312010012013</t>
-  </si>
-  <si>
-    <t>SURYA DHARMA, S.Sos</t>
-  </si>
-  <si>
-    <t>197904102005011016</t>
-  </si>
-  <si>
-    <t>199505142022022001</t>
-  </si>
-  <si>
-    <t>ERMA INDRIATI, A.Md</t>
-  </si>
-  <si>
-    <t>199607262022022001</t>
-  </si>
-  <si>
-    <t>RAHMIATUL FIKRI, A.Md</t>
-  </si>
-  <si>
-    <t>197012051996032003</t>
-  </si>
-  <si>
-    <t>HERLINA, S. Sos, MM</t>
-  </si>
-  <si>
-    <t>197807062005012013</t>
-  </si>
-  <si>
-    <t>SUGIATUN MUKMINATI, S. Sos, M. Si</t>
-  </si>
-  <si>
-    <t>PENGAWAS PERPUSTAKAAN</t>
-  </si>
-  <si>
-    <t>YUSIFA ZULAIHA, SE</t>
-  </si>
-  <si>
-    <t>198608292006042005</t>
+    <t>198810052015031001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMAD LUTFI PRATAMA SKM</t>
+  </si>
+  <si>
+    <t>JF ANALIS KEUANGAN PUSAT DAN DAERAH AHLI MUDA</t>
+  </si>
+  <si>
+    <t>197708232009042001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGUSTINA WULANDARI A.Md</t>
+  </si>
+  <si>
+    <t>198901262015031003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GIZA NOERCHOLIS SE, MM</t>
+  </si>
+  <si>
+    <t>197408172008032001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGUSTINA SE</t>
+  </si>
+  <si>
+    <t>198211192007012005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOR KAMARIAH SE</t>
+  </si>
+  <si>
+    <t>198711282010011005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ERWIN EFISA S.Kom, MM</t>
+  </si>
+  <si>
+    <t>198701312011012009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAIRENA SE</t>
+  </si>
+  <si>
+    <t>198611072005011002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAHMAT NOPRIYADI S.AP</t>
+  </si>
+  <si>
+    <t>JF ANALIS KEBIJAKAN AHLI MUDA</t>
+  </si>
+  <si>
+    <t>198010122007011007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASPIHANI S.A.P</t>
+  </si>
+  <si>
+    <t>198411152009041004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RACHMADI SANTOSO ST</t>
+  </si>
+  <si>
+    <t>198501012007012004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRI WAHYUNITA S.Sos</t>
+  </si>
+  <si>
+    <t>196408081985031010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABU BAKAR SE</t>
+  </si>
+  <si>
+    <t>198507022010011014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JULFITRI AKBAR S.Sos</t>
+  </si>
+  <si>
+    <t>198512282010011016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NORSAHID IMANULLAH ST</t>
+  </si>
+  <si>
+    <t>198307082005011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAISAL PRATAMA SE</t>
+  </si>
+  <si>
+    <t>197811082007011007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMMAD HAZIQI SE</t>
+  </si>
+  <si>
+    <t>198605172005012002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KHAIRIYATI SE</t>
+  </si>
+  <si>
+    <t>198403032006041012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAIRIL ANWARI S.Sos</t>
+  </si>
+  <si>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>PEMBANTU PENYUSUN KEBUTUHAN BARANG INVENTARIS</t>
+  </si>
+  <si>
+    <t>BENDAHARA PENGELUARAN</t>
+  </si>
+  <si>
+    <t>BENDAHARA PENERIMAAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,13 +556,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -398,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,9 +642,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,15 +652,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,7 +699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,7 +734,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +960,8 @@
     <col min="9" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="15" width="15" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -800,7 +1013,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
@@ -818,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="G2" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="7">
         <v>14</v>
       </c>
       <c r="I2" s="7">
-        <v>10592500</v>
+        <v>12188500</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>19</v>
@@ -845,31 +1058,31 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>1116</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>93</v>
+        <v>1119</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5">
         <v>2022</v>
       </c>
       <c r="G3" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7">
         <v>12</v>
       </c>
       <c r="I3" s="7">
-        <v>8360000</v>
+        <v>8512000</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>19</v>
@@ -890,31 +1103,31 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5">
         <v>2022</v>
       </c>
       <c r="G4" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>5880500</v>
+        <v>7553000</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>19</v>
@@ -935,31 +1148,31 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>1116</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>88</v>
+        <v>1119</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5">
         <v>2022</v>
       </c>
       <c r="G5" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>5880500</v>
+        <v>7553000</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
@@ -980,31 +1193,31 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5">
         <v>2022</v>
       </c>
       <c r="G6" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>5880500</v>
+        <v>7553000</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1025,31 +1238,31 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5">
         <v>2022</v>
       </c>
       <c r="G7" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>4446000</v>
+        <v>7553000</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>19</v>
@@ -1070,31 +1283,31 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>1116</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>99</v>
+        <v>1119</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5">
         <v>2022</v>
       </c>
       <c r="G8" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>4446000</v>
+        <v>7553000</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
@@ -1115,31 +1328,31 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F9" s="5">
         <v>2022</v>
       </c>
       <c r="G9" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I9" s="7">
-        <v>4446000</v>
+        <v>7553000</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1160,31 +1373,31 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5">
         <v>2022</v>
       </c>
       <c r="G10" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>4446000</v>
+        <v>4892500</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>19</v>
@@ -1205,31 +1418,31 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F11" s="5">
         <v>2022</v>
       </c>
       <c r="G11" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>4446000</v>
+        <v>4892500</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -1250,31 +1463,31 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5">
         <v>2022</v>
       </c>
       <c r="G12" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>4446000</v>
+        <v>4892500</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1289,37 +1502,37 @@
         <v>20</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
         <v>2022</v>
       </c>
       <c r="G13" s="5">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
       <c r="I13" s="7">
-        <v>4446000</v>
+        <v>3467500</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>19</v>
@@ -1340,31 +1553,31 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>1116</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>86</v>
+        <v>1119</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5">
         <v>2022</v>
       </c>
       <c r="G14" s="5">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7">
         <v>7</v>
       </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
       <c r="I14" s="7">
-        <v>4892500</v>
+        <v>3467500</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>19</v>
@@ -1385,31 +1598,31 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F15" s="5">
         <v>2022</v>
       </c>
       <c r="G15" s="5">
+        <v>8</v>
+      </c>
+      <c r="H15" s="7">
         <v>7</v>
       </c>
-      <c r="H15" s="7">
-        <v>9</v>
-      </c>
       <c r="I15" s="7">
-        <v>4446000</v>
+        <v>3467500</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1430,31 +1643,31 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F16" s="5">
         <v>2022</v>
       </c>
       <c r="G16" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>2280000</v>
+        <v>3548500</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>19</v>
@@ -1471,35 +1684,37 @@
       <c r="N16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="8"/>
+      <c r="O16" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="5">
         <v>2022</v>
       </c>
       <c r="G17" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>3144500</v>
+        <v>3467500</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>19</v>
@@ -1520,31 +1735,31 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="5">
         <v>2022</v>
       </c>
       <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="7">
         <v>7</v>
       </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
       <c r="I18" s="7">
-        <v>2280000</v>
+        <v>3467500</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1565,31 +1780,31 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F19" s="5">
         <v>2022</v>
       </c>
       <c r="G19" s="5">
+        <v>8</v>
+      </c>
+      <c r="H19" s="7">
         <v>7</v>
       </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
       <c r="I19" s="7">
-        <v>2736000</v>
+        <v>3467500</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>19</v>
@@ -1610,31 +1825,31 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F20" s="5">
         <v>2022</v>
       </c>
       <c r="G20" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>3144500</v>
+        <v>3011500</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>19</v>
@@ -1655,31 +1870,31 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F21" s="5">
         <v>2022</v>
       </c>
       <c r="G21" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>3724500</v>
+        <v>3467500</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1700,31 +1915,31 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F22" s="5">
         <v>2022</v>
       </c>
       <c r="G22" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>3144500</v>
+        <v>3467500</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>19</v>
@@ -1745,31 +1960,31 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F23" s="5">
         <v>2022</v>
       </c>
       <c r="G23" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>3144500</v>
+        <v>3467500</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>19</v>
@@ -1790,31 +2005,31 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F24" s="5">
         <v>2022</v>
       </c>
       <c r="G24" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>3757500</v>
+        <v>4546000</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -1831,35 +2046,37 @@
       <c r="N24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="8"/>
+      <c r="O24" s="8" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F25" s="5">
         <v>2022</v>
       </c>
       <c r="G25" s="5">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
       <c r="I25" s="7">
-        <v>3572000</v>
+        <v>3467500</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>19</v>
@@ -1880,31 +2097,31 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>1116</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>75</v>
+        <v>1119</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F26" s="5">
         <v>2022</v>
       </c>
       <c r="G26" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>3144500</v>
+        <v>3011500</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>19</v>
@@ -1925,31 +2142,31 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>1116</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>95</v>
+        <v>1119</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F27" s="5">
         <v>2022</v>
       </c>
       <c r="G27" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
       </c>
       <c r="I27" s="7">
-        <v>3144500</v>
+        <v>3467500</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -1970,31 +2187,31 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>1116</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>89</v>
+        <v>1119</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="F28" s="5">
         <v>2022</v>
       </c>
       <c r="G28" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
       </c>
       <c r="I28" s="7">
-        <v>2736000</v>
+        <v>3011500</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>19</v>
@@ -2015,48 +2232,1402 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>1116</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>91</v>
+        <v>1119</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F29" s="5">
         <v>2022</v>
       </c>
       <c r="G29" s="5">
+        <v>8</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2508000</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G30" s="5">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2508000</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G31" s="5">
+        <v>8</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2508000</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G32" s="5">
+        <v>8</v>
+      </c>
+      <c r="H32" s="7">
         <v>7</v>
       </c>
-      <c r="H29" s="7">
-        <v>6</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2736000</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="8"/>
+      <c r="I32" s="7">
+        <v>4033000</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G33" s="5">
+        <v>8</v>
+      </c>
+      <c r="H33" s="7">
+        <v>7</v>
+      </c>
+      <c r="I33" s="7">
+        <v>3467500</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G34" s="5">
+        <v>8</v>
+      </c>
+      <c r="H34" s="7">
+        <v>7</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3909500</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G35" s="5">
+        <v>8</v>
+      </c>
+      <c r="H35" s="7">
+        <v>7</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3467500</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G36" s="5">
+        <v>8</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1890000</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G37" s="5">
+        <v>8</v>
+      </c>
+      <c r="H37" s="7">
+        <v>7</v>
+      </c>
+      <c r="I37" s="7">
+        <v>3467500</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G38" s="5">
+        <v>8</v>
+      </c>
+      <c r="H38" s="7">
+        <v>7</v>
+      </c>
+      <c r="I38" s="7">
+        <v>3467500</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G39" s="5">
+        <v>8</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2508000</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G40" s="5">
+        <v>8</v>
+      </c>
+      <c r="H40" s="7">
+        <v>7</v>
+      </c>
+      <c r="I40" s="7">
+        <v>3467500</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G41" s="5">
+        <v>8</v>
+      </c>
+      <c r="H41" s="7">
+        <v>5</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2508000</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G42" s="5">
+        <v>8</v>
+      </c>
+      <c r="H42" s="7">
+        <v>9</v>
+      </c>
+      <c r="I42" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G43" s="5">
+        <v>8</v>
+      </c>
+      <c r="H43" s="7">
+        <v>9</v>
+      </c>
+      <c r="I43" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G44" s="5">
+        <v>8</v>
+      </c>
+      <c r="H44" s="7">
+        <v>9</v>
+      </c>
+      <c r="I44" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G45" s="5">
+        <v>8</v>
+      </c>
+      <c r="H45" s="7">
+        <v>9</v>
+      </c>
+      <c r="I45" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G46" s="5">
+        <v>8</v>
+      </c>
+      <c r="H46" s="7">
+        <v>9</v>
+      </c>
+      <c r="I46" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G47" s="5">
+        <v>8</v>
+      </c>
+      <c r="H47" s="7">
+        <v>9</v>
+      </c>
+      <c r="I47" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G48" s="5">
+        <v>8</v>
+      </c>
+      <c r="H48" s="7">
+        <v>9</v>
+      </c>
+      <c r="I48" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="8"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G49" s="5">
+        <v>8</v>
+      </c>
+      <c r="H49" s="7">
+        <v>9</v>
+      </c>
+      <c r="I49" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G50" s="5">
+        <v>8</v>
+      </c>
+      <c r="H50" s="7">
+        <v>9</v>
+      </c>
+      <c r="I50" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G51" s="5">
+        <v>8</v>
+      </c>
+      <c r="H51" s="7">
+        <v>9</v>
+      </c>
+      <c r="I51" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G52" s="5">
+        <v>8</v>
+      </c>
+      <c r="H52" s="7">
+        <v>9</v>
+      </c>
+      <c r="I52" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G53" s="5">
+        <v>8</v>
+      </c>
+      <c r="H53" s="7">
+        <v>9</v>
+      </c>
+      <c r="I53" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G54" s="5">
+        <v>8</v>
+      </c>
+      <c r="H54" s="7">
+        <v>9</v>
+      </c>
+      <c r="I54" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G55" s="5">
+        <v>8</v>
+      </c>
+      <c r="H55" s="7">
+        <v>9</v>
+      </c>
+      <c r="I55" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G56" s="5">
+        <v>8</v>
+      </c>
+      <c r="H56" s="7">
+        <v>9</v>
+      </c>
+      <c r="I56" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="8"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G57" s="5">
+        <v>8</v>
+      </c>
+      <c r="H57" s="7">
+        <v>9</v>
+      </c>
+      <c r="I57" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G58" s="5">
+        <v>8</v>
+      </c>
+      <c r="H58" s="7">
+        <v>9</v>
+      </c>
+      <c r="I58" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="8"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G59" s="5">
+        <v>8</v>
+      </c>
+      <c r="H59" s="7">
+        <v>9</v>
+      </c>
+      <c r="I59" s="7">
+        <v>4892500</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/exceltpp/import_hitungtpp.xlsx
+++ b/exceltpp/import_hitungtpp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\TPP DKP3\Oktober 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4899416-EE11-4D33-8F72-1799DB34EC45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Penerima TPP.xlsx" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -66,16 +67,7 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>197606102005012022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYAHRIDA ELVINA S.ST.Pi, MM</t>
-  </si>
-  <si>
-    <t>UPT BALAI BENIH TANAMAN PANGAN DAN HORTIKULTURA HAMPARAYA</t>
-  </si>
-  <si>
-    <t>KEPALA</t>
+    <t>SEKRETARIAT DPRD</t>
   </si>
   <si>
     <t>AK</t>
@@ -84,55 +76,25 @@
     <t>TIDAK</t>
   </si>
   <si>
-    <t>197506162006041010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FAHRUDIN SP</t>
-  </si>
-  <si>
-    <t>KEPALA SUB BAGIAN TATA USAHA</t>
-  </si>
-  <si>
-    <t>196410122009061002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M. HAMDI </t>
-  </si>
-  <si>
-    <t>PENGADMINISTRASI UMUM</t>
-  </si>
-  <si>
-    <t>196804091989111001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SURIANI A.Ma</t>
-  </si>
-  <si>
-    <t>PENGADMINISTRASI SERTIFIKASI PERLINDUNGAN VARIETAS TANAMAN</t>
-  </si>
-  <si>
-    <t>197406112007011013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SUPIAN HEVNI </t>
-  </si>
-  <si>
-    <t>PETUGAS PENGGANDAAN</t>
-  </si>
-  <si>
-    <t>198312282010011014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ROBY CAHYADI </t>
-  </si>
-  <si>
-    <t>PENGADMINISTRASI KEUANGAN</t>
+    <t>JF ANALIS KEBIJAKAN AHLI MUDA</t>
+  </si>
+  <si>
+    <t>198403102007012008</t>
+  </si>
+  <si>
+    <t>Hj SALASIAH S.Sos</t>
+  </si>
+  <si>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>CUTI SAKIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,11 +495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,16 +565,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>50097</v>
+        <v>1102</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
@@ -630,246 +592,23 @@
         <v>6126120</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L2" s="8">
         <v>0</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>50097</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="O2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G3" s="5">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7">
-        <v>4923804</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>50097</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G4" s="5">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3146182</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>50097</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3146182</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>50097</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G6" s="5">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2850282</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>50097</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G7" s="5">
-        <v>10</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3146182</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/exceltpp/import_hitungtpp.xlsx
+++ b/exceltpp/import_hitungtpp.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA UMPEG\Umpeg 2022 update terakhir\TPP BPKPAD TA. 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4899416-EE11-4D33-8F72-1799DB34EC45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782BC35-BD9D-4BD3-AB58-EEAE77CBA104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Penerima TPP.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -67,7 +67,16 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>SEKRETARIAT DPRD</t>
+    <t>197806012005011016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAKHRIYANTO S.Pt, MP</t>
+  </si>
+  <si>
+    <t>BADAN PENGELOLAAN KEUANGAN, PENDAPATAN DAN ASET DAERAH</t>
+  </si>
+  <si>
+    <t>KEPALA BADAN PENGELOLAAN KEUANGAN, PENDAPATAN DAN ASET DAERAH</t>
   </si>
   <si>
     <t>AK</t>
@@ -76,26 +85,461 @@
     <t>TIDAK</t>
   </si>
   <si>
+    <t>196703151993021002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs AKHMAD SYAIFULLAH ABDI </t>
+  </si>
+  <si>
+    <t>SEKRETARIS</t>
+  </si>
+  <si>
+    <t>198010022005011011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KAMRANI SE, MM</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG PENGELOLAAN BARANG MILIK DAERAH</t>
+  </si>
+  <si>
+    <t>198208202010011027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUSTAKIM SE</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG PERBENDAHARAAN</t>
+  </si>
+  <si>
+    <t>198303202009041002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RIZANI RAHMAN ST</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG ANGGARAN</t>
+  </si>
+  <si>
+    <t>198207062010011025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HALIM MURASYID ST, MA</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG PENAGIHAN DAN PELAPORAN</t>
+  </si>
+  <si>
+    <t>198210202009041002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NORWANTO SE</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG AKUNTANSI DAN PERTANGGUNGJAWABAN</t>
+  </si>
+  <si>
+    <t>197804172005011012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABDUL HALIM SE, MM</t>
+  </si>
+  <si>
+    <t>KEPALA BIDANG LAYANAN, PENDATAAN DAN PENETAPAN</t>
+  </si>
+  <si>
+    <t>197911152010011015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMMAD NOROL GIANTO SH</t>
+  </si>
+  <si>
+    <t>KEPALA SUB BAGIAN PERENCANAAN DAN PELAPORAN</t>
+  </si>
+  <si>
+    <t>198404162010012031</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISMAH WARDANI SE</t>
+  </si>
+  <si>
+    <t>KEPALA SUB BAGIAN UMUM DAN KEPEGAWAIAN</t>
+  </si>
+  <si>
+    <t>198811132010012006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRIANA S.Kom</t>
+  </si>
+  <si>
+    <t>KEPALA SUB BAGIAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>199305162022022002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SITI AISYAH S.E.</t>
+  </si>
+  <si>
+    <t>ANALIS PENDAPATAN DAERAH</t>
+  </si>
+  <si>
+    <t>198210312006041004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUMBERI S.Sos</t>
+  </si>
+  <si>
+    <t>PENYUSUN KEBUTUHAN BARANG INVENTARIS</t>
+  </si>
+  <si>
+    <t>198301162010012019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRI TUNJUNG SARI Amd</t>
+  </si>
+  <si>
+    <t>VERIFIKATOR KEUANGAN</t>
+  </si>
+  <si>
+    <t>199809192020081003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BIMA SYAILENDRA S.STP</t>
+  </si>
+  <si>
+    <t>ANALIS LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>199709022022022003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIARA NOOR HALIZA S. Ak</t>
+  </si>
+  <si>
+    <t>ANALIS PAJAK RETRIBUSI DAERAH</t>
+  </si>
+  <si>
+    <t>199510102020122014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RISA SRI HARTATI S.E</t>
+  </si>
+  <si>
+    <t>ANALIS LAPORAN PERTANGGUNGJAWABAN BENDAHARA</t>
+  </si>
+  <si>
+    <t>198305112005012006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NUR HIKMAH S.AP</t>
+  </si>
+  <si>
+    <t>ANALIS TRANSAKSI KEUANGAN</t>
+  </si>
+  <si>
+    <t>198402062010012022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETNA WIDIYANTIE A.Md</t>
+  </si>
+  <si>
+    <t>VERIFIKATOR DATA LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>198408072010011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGUS S.AP</t>
+  </si>
+  <si>
+    <t>PENYUSUN RENCANA PENGENDALIAN PELAKSANAAN ANGGARAN</t>
+  </si>
+  <si>
+    <t>198504182010011001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMMAD NASIR S.AP</t>
+  </si>
+  <si>
+    <t>BENDAHARA</t>
+  </si>
+  <si>
+    <t>198602092010011015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AKHMAD RIZANI S.Ak</t>
+  </si>
+  <si>
+    <t>PENYUSUN LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>199406202016092003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LYA YUNIARTI S.STP</t>
+  </si>
+  <si>
+    <t>198605122010011017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUDIANSYAH S.Kom.,MM</t>
+  </si>
+  <si>
+    <t>198802292010012011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FARIDA AULIA SARI SE</t>
+  </si>
+  <si>
+    <t>198811072010011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I WAYAN SANDY SUTRISNA A.Md</t>
+  </si>
+  <si>
+    <t>PENGELOLA PEMANFAATAN BARANG MILIK DAERAH</t>
+  </si>
+  <si>
+    <t>198210122005011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMMAD NORLAMSYAH A.Ma</t>
+  </si>
+  <si>
+    <t>PENGELOLA DATA PENGKAJIAN DAN PERAWATAN</t>
+  </si>
+  <si>
+    <t>197004162006042008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NURUL LATIPAH </t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI PAJAK</t>
+  </si>
+  <si>
+    <t>197505172006041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NANANG HERMANSYAH </t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI UMUM</t>
+  </si>
+  <si>
+    <t>197706132007012017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISNANIAH S.A.P</t>
+  </si>
+  <si>
+    <t>196508132009031001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANSYAH </t>
+  </si>
+  <si>
+    <t>PRAMU BAKTI</t>
+  </si>
+  <si>
+    <t>197803282006042020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PATMAWATI S.Sos</t>
+  </si>
+  <si>
+    <t>ANALIS PENAGIHAN DAN PENGEMBALIAN</t>
+  </si>
+  <si>
+    <t>197904292006041009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PADELI APRIANOOR SE</t>
+  </si>
+  <si>
+    <t>ANALIS PERENCANAAN, EVALUASI, DAN PELAPORAN</t>
+  </si>
+  <si>
+    <t>196810212007011017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AKHMAD HERIADI </t>
+  </si>
+  <si>
+    <t>198011202005012017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NURUL ADAWIYAH S.E.</t>
+  </si>
+  <si>
+    <t>ANALIS LAPORAN KEUANGAN TRANSFER DAERAH</t>
+  </si>
+  <si>
+    <t>198201132010012017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHEILA CAHYANI S.Ak</t>
+  </si>
+  <si>
+    <t>ANALIS ASET DAERAH</t>
+  </si>
+  <si>
+    <t>198210112010011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAUZI RAHMAN S.AP</t>
+  </si>
+  <si>
+    <t>ANALIS PEMERIKSAAN PAJAK</t>
+  </si>
+  <si>
+    <t>198207222010012021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FITRIAH SE</t>
+  </si>
+  <si>
+    <t>ANALIS PELAPORAN DAN TRANSAKSI KEUANGAN</t>
+  </si>
+  <si>
+    <t>198203212005011007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROSSY NOORIANSYAH </t>
+  </si>
+  <si>
+    <t>198206012007011005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIDAYATULLAH </t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI KEUANGAN</t>
+  </si>
+  <si>
+    <t>198810052015031001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMAD LUTFI PRATAMA SKM</t>
+  </si>
+  <si>
+    <t>JF ANALIS KEUANGAN PUSAT DAN DAERAH AHLI MUDA</t>
+  </si>
+  <si>
+    <t>198307082005011004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAISAL PRATAMA SE</t>
+  </si>
+  <si>
     <t>JF ANALIS KEBIJAKAN AHLI MUDA</t>
   </si>
   <si>
-    <t>198403102007012008</t>
-  </si>
-  <si>
-    <t>Hj SALASIAH S.Sos</t>
-  </si>
-  <si>
-    <t>YA</t>
-  </si>
-  <si>
-    <t>CUTI SAKIT</t>
+    <t>198901262015031003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GIZA NOERCHOLIS SE, MM</t>
+  </si>
+  <si>
+    <t>197408172008032001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGUSTINA SE</t>
+  </si>
+  <si>
+    <t>198211192007012005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOR KAMARIAH SE</t>
+  </si>
+  <si>
+    <t>197811082007011007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMMAD HAZIQI SE</t>
+  </si>
+  <si>
+    <t>198711282010011005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ERWIN EFISA S.Kom, MM</t>
+  </si>
+  <si>
+    <t>198701312011012009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAIRENA SE</t>
+  </si>
+  <si>
+    <t>198411152009041004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RACHMADI SANTOSO ST</t>
+  </si>
+  <si>
+    <t>198501012007012004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRI WAHYUNITA S.Sos</t>
+  </si>
+  <si>
+    <t>198010122007011007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASPIHANI S.A.P</t>
+  </si>
+  <si>
+    <t>198507022010011014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JULFITRI AKBAR S.Sos</t>
+  </si>
+  <si>
+    <t>198512282010011016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NORSAHID IMANULLAH ST</t>
+  </si>
+  <si>
+    <t>198403032006041012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAIRIL ANWARI S.Sos</t>
+  </si>
+  <si>
+    <t>198605172005012002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KHAIRIYATI SE</t>
+  </si>
+  <si>
+    <t>198611072005011002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAHMAT NOPRIYADI S.AP, MM</t>
+  </si>
+  <si>
+    <t>197708232009042001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGUSTINA WULANDARI A.Md</t>
+  </si>
+  <si>
+    <t>PEMBANTU PENYUSUN KEBUTUHAN BARANG INVENTARIS</t>
+  </si>
+  <si>
+    <t>BENDAHARA PENGELUARAN</t>
+  </si>
+  <si>
+    <t>BENDAHARA PENERIMAAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,6 +555,11 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -166,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +639,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,13 +948,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -516,7 +968,7 @@
     <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,18 +1015,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>1102</v>
+        <v>1119</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
@@ -583,32 +1035,2558 @@
         <v>2022</v>
       </c>
       <c r="G2" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="7">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7">
+        <v>18845239</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="5">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7">
+        <v>11833360</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G4" s="5">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9148666</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G5" s="5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>9148666</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G6" s="5">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9148666</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G7" s="5">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9148666</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G8" s="5">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9148666</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G9" s="5">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9148666</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G10" s="5">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="I2" s="7">
-        <v>6126120</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="I10" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G11" s="5">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G12" s="5">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G13" s="5">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G14" s="5">
+        <v>11</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="5">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7">
+        <v>6</v>
+      </c>
+      <c r="I15" s="9">
+        <v>4482663</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="5">
+        <v>11</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G18" s="5">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G19" s="5">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G20" s="5">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4206380</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G21" s="5">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G22" s="5">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5618151</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G23" s="5">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G24" s="5">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G25" s="5">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G26" s="5">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G27" s="5">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
+        <v>6</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4206380</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G28" s="5">
+        <v>11</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4206380</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G29" s="5">
+        <v>11</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3507992</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G30" s="5">
+        <v>11</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3507992</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G31" s="5">
+        <v>11</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7</v>
+      </c>
+      <c r="I31" s="9">
+        <v>5107410</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G32" s="5">
+        <v>11</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2635737</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G33" s="5">
+        <v>11</v>
+      </c>
+      <c r="H33" s="7">
+        <v>7</v>
+      </c>
+      <c r="I33" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G34" s="5">
+        <v>11</v>
+      </c>
+      <c r="H34" s="7">
+        <v>7</v>
+      </c>
+      <c r="I34" s="9">
+        <v>4954188</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G35" s="5">
+        <v>11</v>
+      </c>
+      <c r="H35" s="7">
+        <v>5</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3507992</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G36" s="5">
+        <v>11</v>
+      </c>
+      <c r="H36" s="7">
+        <v>7</v>
+      </c>
+      <c r="I36" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G37" s="5">
+        <v>11</v>
+      </c>
+      <c r="H37" s="7">
+        <v>7</v>
+      </c>
+      <c r="I37" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G38" s="5">
+        <v>11</v>
+      </c>
+      <c r="H38" s="7">
+        <v>7</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G39" s="5">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>7</v>
+      </c>
+      <c r="I39" s="7">
+        <v>4840548</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G40" s="5">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7">
+        <v>3507992</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G41" s="5">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7">
+        <v>5</v>
+      </c>
+      <c r="I41" s="7">
+        <v>3507992</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G42" s="5">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>9</v>
+      </c>
+      <c r="I42" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G43" s="5">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
+        <v>9</v>
+      </c>
+      <c r="I43" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G44" s="5">
+        <v>11</v>
+      </c>
+      <c r="H44" s="7">
+        <v>9</v>
+      </c>
+      <c r="I44" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G45" s="5">
+        <v>11</v>
+      </c>
+      <c r="H45" s="7">
+        <v>9</v>
+      </c>
+      <c r="I45" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G46" s="5">
+        <v>11</v>
+      </c>
+      <c r="H46" s="7">
+        <v>9</v>
+      </c>
+      <c r="I46" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G47" s="5">
+        <v>11</v>
+      </c>
+      <c r="H47" s="7">
+        <v>9</v>
+      </c>
+      <c r="I47" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G48" s="5">
+        <v>11</v>
+      </c>
+      <c r="H48" s="7">
+        <v>9</v>
+      </c>
+      <c r="I48" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="8"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G49" s="5">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7">
+        <v>9</v>
+      </c>
+      <c r="I49" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G50" s="5">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7">
+        <v>9</v>
+      </c>
+      <c r="I50" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G51" s="5">
+        <v>11</v>
+      </c>
+      <c r="H51" s="7">
+        <v>9</v>
+      </c>
+      <c r="I51" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G52" s="5">
+        <v>11</v>
+      </c>
+      <c r="H52" s="7">
+        <v>9</v>
+      </c>
+      <c r="I52" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G53" s="5">
+        <v>11</v>
+      </c>
+      <c r="H53" s="7">
+        <v>9</v>
+      </c>
+      <c r="I53" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G54" s="5">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7">
+        <v>9</v>
+      </c>
+      <c r="I54" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G55" s="5">
+        <v>11</v>
+      </c>
+      <c r="H55" s="7">
+        <v>9</v>
+      </c>
+      <c r="I55" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G56" s="5">
+        <v>11</v>
+      </c>
+      <c r="H56" s="7">
+        <v>9</v>
+      </c>
+      <c r="I56" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="8"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G57" s="5">
+        <v>11</v>
+      </c>
+      <c r="H57" s="7">
+        <v>9</v>
+      </c>
+      <c r="I57" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>1119</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G58" s="5">
+        <v>11</v>
+      </c>
+      <c r="H58" s="7">
+        <v>9</v>
+      </c>
+      <c r="I58" s="7">
+        <v>6830624</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/exceltpp/import_hitungtpp.xlsx
+++ b/exceltpp/import_hitungtpp.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EKIN\EKIN update\EKIN\DATA TPP UPDATE\DATA 2023\F JUN 23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC One Pro K7-24\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC25AB-4A0E-410E-8435-134A27927987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD22A4B-3C68-4035-8AEE-37FC0E80E86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Penerima TPP.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -67,43 +67,184 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>199012152023212012</t>
-  </si>
-  <si>
-    <t>PUSKESMAS UREN</t>
-  </si>
-  <si>
-    <t>JF BIDAN PELAKSANA</t>
+    <t>197012081992031007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASWAL SALAHUDIN S.IP</t>
+  </si>
+  <si>
+    <t>KECAMATAN AWAYAN</t>
+  </si>
+  <si>
+    <t>CAMAT AWAYAN</t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
   <si>
     <t>TIDAK</t>
   </si>
   <si>
-    <t>199611072023212006</t>
-  </si>
-  <si>
-    <t>JF ASISTEN APOTEKER PELAKSANA</t>
-  </si>
-  <si>
-    <t>199407102023212011</t>
-  </si>
-  <si>
-    <t>199306062023212011</t>
-  </si>
-  <si>
-    <t>SUSILAWATI, Amd.Keb</t>
-  </si>
-  <si>
-    <t>ANNISA LUTFINA, A.Md.Farm</t>
-  </si>
-  <si>
-    <t>ANIKA, A.Md.Keb</t>
-  </si>
-  <si>
-    <t>KHAIRIAH, A. Kd. Keb</t>
-  </si>
-  <si>
-    <t>AK</t>
+    <t>196703061999031005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAPERUDIN S.Pd, MM</t>
+  </si>
+  <si>
+    <t>SEKRETARIS</t>
+  </si>
+  <si>
+    <t>197603012012121002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAPIJI S.Ag</t>
+  </si>
+  <si>
+    <t>KEPALA SEKSI PEMERINTAHAN</t>
+  </si>
+  <si>
+    <t>197912022007011009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HERIYADI S.Sos, MM</t>
+  </si>
+  <si>
+    <t>KEPALA SEKSI PEMBANGUNAN</t>
+  </si>
+  <si>
+    <t>198005032007011010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUDIANSYAH S.Sos</t>
+  </si>
+  <si>
+    <t>KEPALA SEKSI PELAYANAN DAN KESEJAHTERAAN SOSIAL</t>
+  </si>
+  <si>
+    <t>197208142006041012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUHAMMAD YANI S.Sos</t>
+  </si>
+  <si>
+    <t>KEPALA SEKSI PEMBERDAYAAN MASYARAKAT</t>
+  </si>
+  <si>
+    <t>197305032006041008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMRULLAH S.Pd., M.M.</t>
+  </si>
+  <si>
+    <t>KEPALA SEKSI KETENTRAMAN DAN KETERTIBAN UMUM</t>
+  </si>
+  <si>
+    <t>197203152006041005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUSTAM EFFENDI S.Sos</t>
+  </si>
+  <si>
+    <t>KEPALA SUB BAGIAN PERENCANAAN DAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>198211072009031009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARLIYANTO </t>
+  </si>
+  <si>
+    <t>KEPALA SUB BAGIAN UMUM DAN KEPEGAWAIAN</t>
+  </si>
+  <si>
+    <t>196606062007011058</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HERMANSYAH </t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI UMUM</t>
+  </si>
+  <si>
+    <t>198105102005012013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SITI JALEHA S.Sos</t>
+  </si>
+  <si>
+    <t>ANALIS PEMBANGUNAN</t>
+  </si>
+  <si>
+    <t>198607102014062006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RASADIK S.Pd</t>
+  </si>
+  <si>
+    <t>ANALIS PELAYANAN</t>
+  </si>
+  <si>
+    <t>197810042006041004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUBHAN </t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI KEUANGAN</t>
+  </si>
+  <si>
+    <t>197604292012121004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZAKARIA </t>
+  </si>
+  <si>
+    <t>PENGEMUDI</t>
+  </si>
+  <si>
+    <t>197511112000061001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SURIA </t>
+  </si>
+  <si>
+    <t>197407312014061002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAHMAT HIDAYAT </t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI PEMERINTAHAN</t>
+  </si>
+  <si>
+    <t>197203131997031004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MASRIPANI </t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI PERIZINAN</t>
+  </si>
+  <si>
+    <t>196901032007011032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IBNUL AMIN </t>
+  </si>
+  <si>
+    <t>196607042007011050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SYURKANI </t>
+  </si>
+  <si>
+    <t>PETUGAS PENGGANDAAN</t>
+  </si>
+  <si>
+    <t>198905132020122012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAYNIDA ARHANA S.E.</t>
   </si>
 </sst>
 </file>
@@ -511,16 +652,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
@@ -531,7 +672,7 @@
     <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,185 +719,905 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>500812</v>
+        <v>1132</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="7">
-        <v>6</v>
-      </c>
-      <c r="I2" s="7">
-        <v>3300000</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>500812</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2023</v>
-      </c>
-      <c r="G3" s="5">
-        <v>5</v>
-      </c>
-      <c r="H3" s="7">
-        <v>6</v>
-      </c>
-      <c r="I3" s="7">
-        <v>3300000</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>500812</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <v>5</v>
       </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3300000</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>500812</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2023</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3300000</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="8"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1132</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
